--- a/苏州金鸡湖/R/三线表/原始数据.xlsx
+++ b/苏州金鸡湖/R/三线表/原始数据.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\壁报\R\中介效应\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProgram\biye\苏州金鸡湖\R\三线表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FF84ED-1AFE-4A46-8E9E-2C18EAE1EB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7289B83-54D1-41A9-A487-8A7F07F4C4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" activeTab="1" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1123,13 +1124,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB9F96D-8121-4F76-9C0F-2D59C54E0E6C}">
   <dimension ref="A1:AT154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:46" ht="33.5" thickBot="1">
+    <row r="1" spans="1:46" ht="33.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="14.5" thickTop="1">
+    <row r="2" spans="1:46" ht="15" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
@@ -22693,4 +22694,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C3BE3A-54AE-4216-9227-1A0CAFD333F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>